--- a/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
+++ b/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fieldnames" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="URL" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="color" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="comments" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="icons" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">All-time favorites</t>
   </si>
@@ -37,7 +38,7 @@
     <t xml:space="preserve">duckduckgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Github</t>
+    <t xml:space="preserve">bio-century.net</t>
   </si>
   <si>
     <t xml:space="preserve">drive C:</t>
@@ -46,10 +47,13 @@
     <t xml:space="preserve">wikipedia</t>
   </si>
   <si>
+    <t xml:space="preserve">bio-century.net (github)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://duckduckgo.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">www.github.com</t>
+    <t xml:space="preserve">www.bio-century.net</t>
   </si>
   <si>
     <t xml:space="preserve">C:\</t>
@@ -58,10 +62,13 @@
     <t xml:space="preserve">www.wikipedia.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/bio-century</t>
+  </si>
+  <si>
     <t xml:space="preserve">246,194,62</t>
   </si>
   <si>
-    <t xml:space="preserve">76,135,200</t>
+    <t xml:space="preserve">246,24,24</t>
   </si>
   <si>
     <t xml:space="preserve">250,250,250</t>
@@ -73,13 +80,28 @@
     <t xml:space="preserve">duckduckgo comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Github comment</t>
+    <t xml:space="preserve">come visit www.bio-century.net !</t>
   </si>
   <si>
     <t xml:space="preserve">C: comment</t>
   </si>
   <si>
     <t xml:space="preserve">wikipedia comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come visit https://github.com/bio-century !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globe_green.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCN_Logo3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdd_white.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globe_yellow.png</t>
   </si>
 </sst>
 </file>
@@ -122,14 +144,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -199,7 +221,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,20 +242,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -329,13 +355,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="2" sqref="C3 I17 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +380,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -366,24 +392,26 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
@@ -405,13 +433,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="2" sqref="C3 I17 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.96"/>
   </cols>
@@ -426,45 +454,47 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -484,41 +514,43 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="2" sqref="C3 I17 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
@@ -535,9 +567,9 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -558,7 +590,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P39" activeCellId="0" sqref="P39"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="2" sqref="C3 I17 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,20 +613,71 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="C3 I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
+++ b/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">globe_green.png</t>
   </si>
   <si>
-    <t xml:space="preserve">BCN_Logo3.png</t>
+    <t xml:space="preserve">BCN_Logo.png</t>
   </si>
   <si>
     <t xml:space="preserve">hdd_white.png</t>
@@ -355,7 +355,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="2" sqref="C3 I17 E47"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="1" sqref="B10:B11 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="2" sqref="C3 I17 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B10:B11 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="2" sqref="C3 I17 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B10:B11 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="2" sqref="C3 I17 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B10:B11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,14 +649,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="C3 I17"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
+++ b/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
@@ -24,15 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t xml:space="preserve">All-time favorites</t>
   </si>
   <si>
-    <t xml:space="preserve">my reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my drive</t>
+    <t xml:space="preserve">my references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my OS-drive</t>
   </si>
   <si>
     <t xml:space="preserve">duckduckgo</t>
@@ -355,7 +355,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="1" sqref="B10:B11 E47"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B10:B11 B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B10:B11 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B10:B11 B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,7 +659,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>

--- a/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
+++ b/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="1" sqref="B1:B3 G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
+++ b/target/src/main/resources/spreadsheetFiles/Starttab.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="1" sqref="B1:B3 G21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
